--- a/Test1.xlsx
+++ b/Test1.xlsx
@@ -24,7 +24,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="sub_times.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alexandrafalkner:classVandy:finala2:pythonProject8:sub_times.txt" tab="0" comma="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alexandrafalkner:classVandy:finala2:pythonProject8:sub_times.txt" tab="0" comma="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -57,10 +57,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,13 +99,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -423,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -437,7 +457,7 @@
     <col min="4" max="4" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,7 +474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>3984</v>
       </c>
@@ -472,8 +492,11 @@
         <f>AVERAGEA(D2:D51)</f>
         <v>5.7892222404479977E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>5.7892222404479998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>9955</v>
       </c>
@@ -488,7 +511,7 @@
         <v>1.8301010131835938E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>5589</v>
       </c>
@@ -503,7 +526,7 @@
         <v>3.7500858306884766E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1953</v>
       </c>
@@ -518,7 +541,7 @@
         <v>7.7600479125976562E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>6026</v>
       </c>
@@ -533,7 +556,7 @@
         <v>1.0190010070800781E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>914</v>
       </c>
@@ -548,7 +571,7 @@
         <v>1.4060020446777344E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>4793</v>
       </c>
@@ -563,7 +586,7 @@
         <v>1.7270088195800781E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>4462</v>
       </c>
@@ -578,7 +601,7 @@
         <v>2.1140098571777344E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>5921</v>
       </c>
@@ -593,7 +616,7 @@
         <v>2.2080183029174805E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>6910</v>
       </c>
@@ -608,7 +631,7 @@
         <v>2.228999137878418E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3673</v>
       </c>
@@ -623,7 +646,7 @@
         <v>2.3759841918945312E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>1230</v>
       </c>
@@ -638,7 +661,7 @@
         <v>2.6710033416748047E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>3008</v>
       </c>
@@ -653,7 +676,7 @@
         <v>3.068995475769043E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>3040</v>
       </c>
@@ -668,7 +691,7 @@
         <v>3.152012825012207E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>8010</v>
       </c>
@@ -1210,6 +1233,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
